--- a/storage/app/private/format/FormatImportPegawai.xlsx
+++ b/storage/app/private/format/FormatImportPegawai.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>NO</t>
   </si>
@@ -53,76 +53,22 @@
     <t>NAMA DI REKENING</t>
   </si>
   <si>
-    <t>ITS.21008.211229.CKR</t>
+    <t>ITS.00000.000000.CKR</t>
   </si>
   <si>
-    <t>E.M Hadi Sastra P.</t>
+    <t>John Doe</t>
   </si>
   <si>
     <t>PKWT</t>
   </si>
   <si>
-    <t>christiantok12@gmail.com</t>
+    <t>john.doe@mail.com</t>
   </si>
   <si>
-    <t>BNI</t>
+    <t>Mandiri</t>
   </si>
   <si>
-    <t>Emon Muhammad Hadi S.</t>
-  </si>
-  <si>
-    <t>ITS.21009.211231.CKR</t>
-  </si>
-  <si>
-    <t>Karina Syafarini</t>
-  </si>
-  <si>
-    <t>christiantok13@gmail.com</t>
-  </si>
-  <si>
-    <t>ITS.21010.211231.CKR</t>
-  </si>
-  <si>
-    <t>Anti Hardiati</t>
-  </si>
-  <si>
-    <t>christiantok14@gmail.com</t>
-  </si>
-  <si>
-    <t>ITS.21013.211231.CKR</t>
-  </si>
-  <si>
-    <t>Kendar Hermawan</t>
-  </si>
-  <si>
-    <t>kevinchristianto22@gmail.com</t>
-  </si>
-  <si>
-    <t>ITS.21014.211231.CKR</t>
-  </si>
-  <si>
-    <t>Misri Raharjo</t>
-  </si>
-  <si>
-    <t>buat.crypto69@gmail.com</t>
-  </si>
-  <si>
-    <t>ITS.21015.211231.CKR</t>
-  </si>
-  <si>
-    <t>Pipit Martini Dimiyatin</t>
-  </si>
-  <si>
-    <t>nswitchacc22@gmail.com</t>
-  </si>
-  <si>
-    <t>ITS.24261.240115.CKR</t>
-  </si>
-  <si>
-    <t>Luthfi Husni Darmawan</t>
-  </si>
-  <si>
-    <t>kevin.christianto@kalbio.co.id</t>
+    <t>1730002978501</t>
   </si>
 </sst>
 </file>
@@ -761,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,7 +726,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1" quotePrefix="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1317,13 +1263,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.42857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5714285714286" style="1" customWidth="1"/>
@@ -1381,179 +1327,17 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3">
-        <v>1553767914</v>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1505922549</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1551557217</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1508748317</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1508748497</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1552638436</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1822536766</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cGmRA3D9nSfcmyYVO3VqGlv8o7Y6HJVdeE//HuDoUvQufG6QALK71JIxlfIPhXCIUHK2dQeFq1UeUjp7ngVCLA==" saltValue="ZE4WU8zIHlTmZACosnM+aQ==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QEnm2SmF78dPHELqBN06IyPyEflmSxMVk2ZaXNmEyHX0uE7C1+sf9KYi2FoarCiSK+r6dOzswdH7e3m3KJHGgg==" saltValue="ro3q7N7gYd1Mt1kc3ktn1Q==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" objects="1"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="christiantok12@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="christiantok13@gmail.com"/>
-    <hyperlink ref="E4" r:id="rId3" display="christiantok14@gmail.com"/>
-    <hyperlink ref="E5" r:id="rId4" display="kevinchristianto22@gmail.com"/>
-    <hyperlink ref="E6" r:id="rId5" display="buat.crypto69@gmail.com"/>
-    <hyperlink ref="E7" r:id="rId6" display="nswitchacc22@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId7" display="kevin.christianto@kalbio.co.id"/>
+    <hyperlink ref="E2" r:id="rId1" display="john.doe@mail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/storage/app/private/format/FormatImportPegawai.xlsx
+++ b/storage/app/private/format/FormatImportPegawai.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>NO</t>
   </si>
@@ -56,19 +56,22 @@
     <t>ITS.00000.000000.CKR</t>
   </si>
   <si>
+    <t>CONTOH (HAPUS AJA)</t>
+  </si>
+  <si>
+    <t>PKWT</t>
+  </si>
+  <si>
+    <t>john.doe@mail.com</t>
+  </si>
+  <si>
+    <t>Mandiri</t>
+  </si>
+  <si>
+    <t>1730002978501</t>
+  </si>
+  <si>
     <t>John Doe</t>
-  </si>
-  <si>
-    <t>PKWT</t>
-  </si>
-  <si>
-    <t>john.doe@mail.com</t>
-  </si>
-  <si>
-    <t>Mandiri</t>
-  </si>
-  <si>
-    <t>1730002978501</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1269,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1331,30 +1334,15 @@
         <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QEnm2SmF78dPHELqBN06IyPyEflmSxMVk2ZaXNmEyHX0uE7C1+sf9KYi2FoarCiSK+r6dOzswdH7e3m3KJHGgg==" saltValue="ro3q7N7gYd1Mt1kc3ktn1Q==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" objects="1"/>
+  <sheetProtection insertRows="0" deleteRows="0"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="john.doe@mail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master="" otherUserPermission="visible"/>
-</allowEditUser>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>